--- a/reddit_comentarios_consolidados2.xlsx
+++ b/reddit_comentarios_consolidados2.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>5</v>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>4</v>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>2</v>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>2</v>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -3869,7 +3869,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F90" t="n">
         <v>3</v>
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="F99" t="n">
         <v>2</v>
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F100" t="n">
         <v>3</v>
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F101" t="n">
         <v>4</v>
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F102" t="n">
         <v>5</v>
@@ -4401,7 +4401,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F104" t="n">
         <v>7</v>
@@ -4478,7 +4478,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F106" t="n">
         <v>5</v>
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F108" t="n">
         <v>7</v>
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F109" t="n">
         <v>8</v>
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F110" t="n">
         <v>9</v>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F112" t="n">
         <v>8</v>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F113" t="n">
         <v>9</v>
@@ -4784,7 +4784,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F114" t="n">
         <v>7</v>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F116" t="n">
         <v>5</v>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F117" t="n">
         <v>6</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F118" t="n">
         <v>7</v>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F122" t="n">
         <v>6</v>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F123" t="n">
         <v>7</v>
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F124" t="n">
         <v>8</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F125" t="n">
         <v>3</v>
@@ -5283,7 +5283,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F127" t="n">
         <v>5</v>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F128" t="n">
         <v>6</v>
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F129" t="n">
         <v>7</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F130" t="n">
         <v>8</v>
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F131" t="n">
         <v>2</v>
@@ -5475,7 +5475,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F132" t="n">
         <v>3</v>
@@ -5591,7 +5591,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F135" t="n">
         <v>4</v>
@@ -5629,7 +5629,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F136" t="n">
         <v>4</v>
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F137" t="n">
         <v>3</v>
@@ -5705,7 +5705,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F138" t="n">
         <v>2</v>
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F139" t="n">
         <v>3</v>
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F140" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F141" t="n">
         <v>5</v>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F142" t="n">
         <v>6</v>
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F144" t="n">
         <v>4</v>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F145" t="n">
         <v>2</v>
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F147" t="n">
         <v>4</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F148" t="n">
         <v>4</v>
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F149" t="n">
         <v>5</v>
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F150" t="n">
         <v>3</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F151" t="n">
         <v>2</v>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F152" t="n">
         <v>3</v>
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F153" t="n">
         <v>3</v>
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F155" t="n">
         <v>2</v>
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F157" t="n">
         <v>3</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F158" t="n">
         <v>2</v>
@@ -6510,7 +6510,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F159" t="n">
         <v>2</v>
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F162" t="n">
         <v>5</v>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F163" t="n">
         <v>4</v>
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F164" t="n">
         <v>2</v>
@@ -6740,7 +6740,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F165" t="n">
         <v>2</v>
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F168" t="n">
         <v>3</v>
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F171" t="n">
         <v>2</v>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F172" t="n">
         <v>3</v>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F173" t="n">
         <v>2</v>
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F174" t="n">
         <v>3</v>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F175" t="n">
         <v>4</v>
@@ -7159,7 +7159,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F176" t="n">
         <v>5</v>
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F178" t="n">
         <v>5</v>
@@ -7273,7 +7273,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F179" t="n">
         <v>4</v>
@@ -7311,7 +7311,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F180" t="n">
         <v>4</v>
@@ -7349,7 +7349,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F181" t="n">
         <v>5</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F182" t="n">
         <v>6</v>
@@ -7425,7 +7425,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F183" t="n">
         <v>4</v>
@@ -7463,7 +7463,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F184" t="n">
         <v>4</v>
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F185" t="n">
         <v>4</v>
@@ -7539,7 +7539,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F186" t="n">
         <v>4</v>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F187" t="n">
         <v>4</v>
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F188" t="n">
         <v>4</v>
@@ -7655,7 +7655,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -7693,7 +7693,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F190" t="n">
         <v>2</v>
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F191" t="n">
         <v>3</v>
@@ -7809,7 +7809,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F193" t="n">
         <v>5</v>
@@ -7848,7 +7848,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F194" t="n">
         <v>6</v>
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F195" t="n">
         <v>7</v>
@@ -8043,7 +8043,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F199" t="n">
         <v>3</v>
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F201" t="n">
         <v>4</v>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F203" t="n">
         <v>2</v>
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F204" t="n">
         <v>3</v>
@@ -8275,7 +8275,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F205" t="n">
         <v>3</v>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F206" t="n">
         <v>4</v>
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F207" t="n">
         <v>2</v>
@@ -8391,7 +8391,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F208" t="n">
         <v>3</v>
@@ -8429,7 +8429,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
@@ -8513,7 +8513,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F211" t="n">
         <v>2</v>
@@ -8551,7 +8551,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F212" t="n">
         <v>2</v>
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F214" t="n">
         <v>2</v>
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F215" t="n">
         <v>3</v>
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F216" t="n">
         <v>4</v>
@@ -8745,7 +8745,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F217" t="n">
         <v>5</v>
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F219" t="n">
         <v>5</v>
@@ -8859,7 +8859,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F220" t="n">
         <v>6</v>
@@ -8897,7 +8897,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F221" t="n">
         <v>4</v>
@@ -9011,7 +9011,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -9051,7 +9051,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F225" t="n">
         <v>2</v>
@@ -9090,7 +9090,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -9128,7 +9128,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F227" t="n">
         <v>2</v>
@@ -9204,7 +9204,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F229" t="n">
         <v>4</v>
@@ -9242,7 +9242,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F230" t="n">
         <v>5</v>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F231" t="n">
         <v>6</v>
@@ -9356,7 +9356,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F233" t="n">
         <v>2</v>
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F234" t="n">
         <v>3</v>
@@ -9433,7 +9433,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F235" t="n">
         <v>1</v>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F237" t="n">
         <v>2</v>
@@ -9548,7 +9548,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F239" t="n">
         <v>4</v>
@@ -9624,7 +9624,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F240" t="n">
         <v>3</v>
@@ -9662,7 +9662,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F241" t="n">
         <v>4</v>
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F242" t="n">
         <v>2</v>
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F243" t="n">
         <v>1</v>
@@ -9814,7 +9814,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F245" t="n">
         <v>3</v>
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F246" t="n">
         <v>4</v>
@@ -9890,7 +9890,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F247" t="n">
         <v>3</v>
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F248" t="n">
         <v>4</v>
@@ -9966,7 +9966,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F249" t="n">
         <v>5</v>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F250" t="n">
         <v>5</v>
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F252" t="n">
         <v>3</v>
@@ -10120,7 +10120,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F253" t="n">
         <v>1</v>
@@ -10158,7 +10158,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F254" t="n">
         <v>2</v>
@@ -10234,7 +10234,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F256" t="n">
         <v>2</v>
@@ -10274,7 +10274,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F257" t="n">
         <v>1</v>
@@ -10312,7 +10312,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F258" t="n">
         <v>2</v>
@@ -10350,7 +10350,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F259" t="n">
         <v>3</v>
@@ -10428,7 +10428,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F261" t="n">
         <v>2</v>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F262" t="n">
         <v>3</v>
@@ -10505,7 +10505,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F263" t="n">
         <v>2</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F265" t="n">
         <v>1</v>
@@ -10620,7 +10620,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F266" t="n">
         <v>2</v>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F268" t="n">
         <v>4</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F270" t="n">
         <v>1</v>
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F271" t="n">
         <v>2</v>
@@ -10849,7 +10849,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F272" t="n">
         <v>3</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F273" t="n">
         <v>3</v>
@@ -10925,7 +10925,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F274" t="n">
         <v>4</v>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F275" t="n">
         <v>5</v>
@@ -11040,7 +11040,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F277" t="n">
         <v>3</v>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F279" t="n">
         <v>1</v>
@@ -11154,7 +11154,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F280" t="n">
         <v>2</v>
@@ -11192,7 +11192,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F281" t="n">
         <v>2</v>
@@ -11230,7 +11230,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F282" t="n">
         <v>2</v>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F283" t="n">
         <v>2</v>
@@ -11345,7 +11345,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F285" t="n">
         <v>1</v>
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F286" t="n">
         <v>2</v>
@@ -11423,7 +11423,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F287" t="n">
         <v>2</v>
@@ -11462,7 +11462,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F288" t="n">
         <v>1</v>
@@ -11500,7 +11500,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F289" t="n">
         <v>1</v>
@@ -11541,7 +11541,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F290" t="n">
         <v>2</v>
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F291" t="n">
         <v>2</v>
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F292" t="n">
         <v>1</v>
@@ -11694,7 +11694,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F294" t="n">
         <v>1</v>
@@ -11889,7 +11889,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F299" t="n">
         <v>2</v>
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F303" t="n">
         <v>1</v>
@@ -12120,7 +12120,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F305" t="n">
         <v>1</v>
@@ -12388,7 +12388,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F312" t="n">
         <v>1</v>
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F315" t="n">
         <v>4</v>
@@ -12654,7 +12654,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F319" t="n">
         <v>1</v>
@@ -13193,7 +13193,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" t="n">
         <v>4</v>
@@ -13539,7 +13539,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F342" t="n">
         <v>3</v>
@@ -13654,7 +13654,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F345" t="n">
         <v>3</v>
@@ -13776,7 +13776,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F348" t="n">
         <v>6</v>
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="F353" t="n">
         <v>6</v>
@@ -14005,7 +14005,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F354" t="n">
         <v>7</v>
@@ -14312,7 +14312,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F362" t="n">
         <v>4</v>
@@ -14350,7 +14350,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F363" t="n">
         <v>1</v>
@@ -14503,7 +14503,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F367" t="n">
         <v>1</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F368" t="n">
         <v>2</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F373" t="n">
         <v>7</v>
@@ -14886,7 +14886,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F377" t="n">
         <v>4</v>
@@ -14927,7 +14927,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F378" t="n">
         <v>5</v>
@@ -15234,7 +15234,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F386" t="n">
         <v>2</v>
@@ -15272,7 +15272,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F387" t="n">
         <v>1</v>
@@ -15310,7 +15310,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F388" t="n">
         <v>1</v>
@@ -15425,7 +15425,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F391" t="n">
         <v>4</v>
@@ -15657,7 +15657,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F397" t="n">
         <v>1</v>
@@ -15811,7 +15811,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F401" t="n">
         <v>1</v>
@@ -15849,7 +15849,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F402" t="n">
         <v>2</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F414" t="n">
         <v>3</v>
@@ -16355,7 +16355,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F415" t="n">
         <v>4</v>
@@ -16431,7 +16431,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F417" t="n">
         <v>2</v>
@@ -16697,7 +16697,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F424" t="n">
         <v>4</v>
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F426" t="n">
         <v>1</v>
@@ -16811,7 +16811,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F427" t="n">
         <v>2</v>
@@ -16849,7 +16849,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F428" t="n">
         <v>2</v>
@@ -16888,7 +16888,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F429" t="n">
         <v>2</v>
@@ -16928,7 +16928,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F430" t="n">
         <v>3</v>
@@ -16966,7 +16966,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F431" t="n">
         <v>2</v>
@@ -17123,7 +17123,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F435" t="n">
         <v>1</v>
@@ -17431,7 +17431,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F443" t="n">
         <v>1</v>
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F444" t="n">
         <v>2</v>
@@ -17510,7 +17510,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F445" t="n">
         <v>1</v>
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F448" t="n">
         <v>2</v>
@@ -17665,7 +17665,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F449" t="n">
         <v>1</v>
@@ -17703,7 +17703,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F450" t="n">
         <v>2</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F457" t="n">
         <v>1</v>
@@ -18050,7 +18050,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F459" t="n">
         <v>1</v>
@@ -18088,7 +18088,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F460" t="n">
         <v>2</v>
@@ -18164,7 +18164,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F462" t="n">
         <v>1</v>
@@ -18204,7 +18204,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F463" t="n">
         <v>1</v>
@@ -18242,7 +18242,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F464" t="n">
         <v>2</v>
@@ -18403,7 +18403,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F468" t="n">
         <v>1</v>
@@ -18519,7 +18519,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F471" t="n">
         <v>2</v>
@@ -18559,7 +18559,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F472" t="n">
         <v>3</v>
@@ -18829,7 +18829,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F479" t="n">
         <v>1</v>
@@ -18906,7 +18906,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F481" t="n">
         <v>1</v>
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F483" t="n">
         <v>3</v>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F490" t="n">
         <v>1</v>
@@ -19342,7 +19342,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F492" t="n">
         <v>1</v>
@@ -19536,7 +19536,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F497" t="n">
         <v>1</v>
@@ -19613,7 +19613,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F499" t="n">
         <v>3</v>
@@ -21080,7 +21080,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F537" t="n">
         <v>2</v>
@@ -21157,7 +21157,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F539" t="n">
         <v>1</v>
@@ -21311,7 +21311,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F543" t="n">
         <v>1</v>
@@ -21744,7 +21744,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F554" t="n">
         <v>1</v>
@@ -21820,7 +21820,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F556" t="n">
         <v>1</v>
@@ -21935,7 +21935,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F559" t="n">
         <v>1</v>
@@ -22091,7 +22091,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F563" t="n">
         <v>1</v>
@@ -22673,7 +22673,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F578" t="n">
         <v>1</v>
@@ -22787,7 +22787,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F581" t="n">
         <v>2</v>
@@ -22825,7 +22825,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F582" t="n">
         <v>1</v>
@@ -22863,7 +22863,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F583" t="n">
         <v>2</v>
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F585" t="n">
         <v>3</v>
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F586" t="n">
         <v>4</v>
@@ -23053,7 +23053,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F588" t="n">
         <v>6</v>
@@ -23129,7 +23129,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F590" t="n">
         <v>8</v>
@@ -23205,7 +23205,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F592" t="n">
         <v>3</v>
@@ -23359,7 +23359,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F596" t="n">
         <v>1</v>
@@ -23435,7 +23435,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F598" t="n">
         <v>3</v>
@@ -23626,7 +23626,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F603" t="n">
         <v>1</v>
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F606" t="n">
         <v>1</v>
@@ -24013,7 +24013,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F613" t="n">
         <v>1</v>
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F614" t="n">
         <v>2</v>
@@ -24130,7 +24130,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F616" t="n">
         <v>4</v>
@@ -24174,7 +24174,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F617" t="n">
         <v>5</v>

--- a/reddit_comentarios_consolidados2.xlsx
+++ b/reddit_comentarios_consolidados2.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>5</v>
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>4</v>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>2</v>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -4489,7 +4489,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F90" t="n">
         <v>3</v>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>2</v>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="F99" t="n">
         <v>2</v>
@@ -6301,7 +6301,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F101" t="n">
         <v>4</v>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F102" t="n">
         <v>5</v>
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F103" t="n">
         <v>6</v>
@@ -6475,7 +6475,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F104" t="n">
         <v>7</v>
@@ -6533,7 +6533,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F105" t="n">
         <v>4</v>
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F107" t="n">
         <v>6</v>
@@ -6708,7 +6708,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F108" t="n">
         <v>7</v>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F109" t="n">
         <v>8</v>
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F110" t="n">
         <v>9</v>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F111" t="n">
         <v>9</v>
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F112" t="n">
         <v>8</v>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F113" t="n">
         <v>9</v>
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F114" t="n">
         <v>7</v>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F115" t="n">
         <v>8</v>
@@ -7176,7 +7176,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F116" t="n">
         <v>5</v>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F117" t="n">
         <v>6</v>
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F118" t="n">
         <v>7</v>
@@ -7350,7 +7350,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F119" t="n">
         <v>7</v>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F120" t="n">
         <v>5</v>
@@ -7468,7 +7468,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F121" t="n">
         <v>5</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" t="n">
         <v>6</v>
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F123" t="n">
         <v>7</v>
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F125" t="n">
         <v>3</v>
@@ -7759,7 +7759,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F126" t="n">
         <v>4</v>
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F127" t="n">
         <v>5</v>
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F128" t="n">
         <v>6</v>
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F130" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F132" t="n">
         <v>3</v>
@@ -8168,7 +8168,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F133" t="n">
         <v>4</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F134" t="n">
         <v>4</v>
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F135" t="n">
         <v>4</v>
@@ -8343,7 +8343,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F136" t="n">
         <v>4</v>
@@ -8401,7 +8401,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F137" t="n">
         <v>3</v>
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F138" t="n">
         <v>2</v>
@@ -8518,7 +8518,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F139" t="n">
         <v>3</v>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F140" t="n">
         <v>4</v>
@@ -8634,7 +8634,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F141" t="n">
         <v>5</v>
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F142" t="n">
         <v>6</v>
@@ -8808,7 +8808,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F144" t="n">
         <v>4</v>
@@ -8867,7 +8867,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F145" t="n">
         <v>2</v>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F149" t="n">
         <v>5</v>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F151" t="n">
         <v>2</v>
@@ -9274,7 +9274,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F152" t="n">
         <v>3</v>
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F153" t="n">
         <v>3</v>
@@ -9390,7 +9390,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F154" t="n">
         <v>4</v>
@@ -9448,7 +9448,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F155" t="n">
         <v>2</v>
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F157" t="n">
         <v>3</v>
@@ -9918,7 +9918,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F163" t="n">
         <v>4</v>
@@ -9976,7 +9976,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F164" t="n">
         <v>2</v>
@@ -10034,7 +10034,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F165" t="n">
         <v>2</v>
@@ -10092,7 +10092,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F166" t="n">
         <v>3</v>
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F167" t="n">
         <v>3</v>
@@ -10266,7 +10266,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F169" t="n">
         <v>4</v>
@@ -10324,7 +10324,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F172" t="n">
         <v>3</v>
@@ -10498,7 +10498,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F173" t="n">
         <v>2</v>
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F174" t="n">
         <v>3</v>
@@ -10614,7 +10614,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F175" t="n">
         <v>4</v>
@@ -10731,7 +10731,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F177" t="n">
         <v>4</v>
@@ -10789,7 +10789,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F178" t="n">
         <v>5</v>
@@ -10847,7 +10847,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F179" t="n">
         <v>4</v>
@@ -10905,7 +10905,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F180" t="n">
         <v>4</v>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F181" t="n">
         <v>5</v>
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F182" t="n">
         <v>6</v>
@@ -11079,7 +11079,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F183" t="n">
         <v>4</v>
@@ -11137,7 +11137,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F184" t="n">
         <v>4</v>
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F185" t="n">
         <v>4</v>
@@ -11253,7 +11253,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F186" t="n">
         <v>4</v>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="n">
         <v>4</v>
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F188" t="n">
         <v>4</v>
@@ -11429,7 +11429,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F190" t="n">
         <v>2</v>
@@ -11545,7 +11545,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F191" t="n">
         <v>3</v>
@@ -11605,7 +11605,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F192" t="n">
         <v>4</v>
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F194" t="n">
         <v>6</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F195" t="n">
         <v>7</v>
@@ -11840,7 +11840,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F196" t="n">
         <v>5</v>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F197" t="n">
         <v>4</v>
@@ -11959,7 +11959,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F198" t="n">
         <v>2</v>
@@ -12075,7 +12075,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F200" t="n">
         <v>4</v>
@@ -12133,7 +12133,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F201" t="n">
         <v>4</v>
@@ -12191,7 +12191,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F202" t="n">
         <v>5</v>
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F203" t="n">
         <v>2</v>
@@ -12369,7 +12369,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F205" t="n">
         <v>3</v>
@@ -12428,7 +12428,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F206" t="n">
         <v>4</v>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F207" t="n">
         <v>2</v>
@@ -12545,7 +12545,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F208" t="n">
         <v>3</v>
@@ -12603,7 +12603,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
@@ -12666,7 +12666,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F210" t="n">
         <v>2</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F211" t="n">
         <v>2</v>
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F212" t="n">
         <v>2</v>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
@@ -12903,7 +12903,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F214" t="n">
         <v>2</v>
@@ -12963,7 +12963,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F215" t="n">
         <v>3</v>
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F216" t="n">
         <v>4</v>
@@ -13079,7 +13079,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F217" t="n">
         <v>5</v>
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F218" t="n">
         <v>5</v>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F219" t="n">
         <v>5</v>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F220" t="n">
         <v>6</v>
@@ -13311,7 +13311,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F221" t="n">
         <v>4</v>
@@ -13369,7 +13369,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F222" t="n">
         <v>5</v>
@@ -13427,7 +13427,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
@@ -13485,7 +13485,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F225" t="n">
         <v>2</v>
@@ -13604,7 +13604,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -13662,7 +13662,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F227" t="n">
         <v>2</v>
@@ -13720,7 +13720,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F228" t="n">
         <v>3</v>
@@ -13952,7 +13952,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F232" t="n">
         <v>4</v>
@@ -14069,7 +14069,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F234" t="n">
         <v>3</v>
@@ -14127,7 +14127,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F235" t="n">
         <v>1</v>
@@ -14186,7 +14186,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F236" t="n">
         <v>1</v>
@@ -14244,7 +14244,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F237" t="n">
         <v>2</v>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
@@ -14418,7 +14418,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F240" t="n">
         <v>3</v>
@@ -14476,7 +14476,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F241" t="n">
         <v>4</v>
@@ -14534,7 +14534,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F242" t="n">
         <v>2</v>
@@ -14708,7 +14708,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F245" t="n">
         <v>3</v>
@@ -14766,7 +14766,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F246" t="n">
         <v>4</v>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F247" t="n">
         <v>3</v>
@@ -14882,7 +14882,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F248" t="n">
         <v>4</v>
@@ -14940,7 +14940,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F249" t="n">
         <v>5</v>
@@ -14999,7 +14999,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F250" t="n">
         <v>5</v>
@@ -15057,7 +15057,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F251" t="n">
         <v>5</v>
@@ -15116,7 +15116,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F252" t="n">
         <v>3</v>
@@ -15174,7 +15174,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F253" t="n">
         <v>1</v>
@@ -15232,7 +15232,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F254" t="n">
         <v>2</v>
@@ -15348,7 +15348,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F256" t="n">
         <v>2</v>
@@ -15408,7 +15408,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F257" t="n">
         <v>1</v>
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F258" t="n">
         <v>2</v>
@@ -15583,7 +15583,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F260" t="n">
         <v>3</v>
@@ -15642,7 +15642,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F261" t="n">
         <v>2</v>
@@ -15817,7 +15817,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F264" t="n">
         <v>3</v>
@@ -15875,7 +15875,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F265" t="n">
         <v>1</v>
@@ -15934,7 +15934,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F266" t="n">
         <v>2</v>
@@ -15992,7 +15992,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F267" t="n">
         <v>3</v>
@@ -16050,7 +16050,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F268" t="n">
         <v>4</v>
@@ -16108,7 +16108,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F269" t="n">
         <v>3</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F270" t="n">
         <v>1</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F273" t="n">
         <v>3</v>
@@ -16399,7 +16399,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F274" t="n">
         <v>4</v>
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F275" t="n">
         <v>5</v>
@@ -16515,7 +16515,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F276" t="n">
         <v>2</v>
@@ -16574,7 +16574,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F277" t="n">
         <v>3</v>
@@ -16632,7 +16632,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F278" t="n">
         <v>2</v>
@@ -16690,7 +16690,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F279" t="n">
         <v>1</v>
@@ -16748,7 +16748,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F280" t="n">
         <v>2</v>
@@ -16806,7 +16806,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F281" t="n">
         <v>2</v>
@@ -16922,7 +16922,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F283" t="n">
         <v>2</v>
@@ -16980,7 +16980,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F284" t="n">
         <v>1</v>
@@ -17039,7 +17039,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F285" t="n">
         <v>1</v>
@@ -17157,7 +17157,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F287" t="n">
         <v>2</v>
@@ -17216,7 +17216,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F288" t="n">
         <v>1</v>
@@ -17335,7 +17335,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F290" t="n">
         <v>2</v>
@@ -17393,7 +17393,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F291" t="n">
         <v>2</v>
@@ -17568,7 +17568,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F294" t="n">
         <v>1</v>
@@ -17628,7 +17628,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F295" t="n">
         <v>2</v>
@@ -17686,7 +17686,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F296" t="n">
         <v>2</v>
@@ -17805,7 +17805,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F298" t="n">
         <v>1</v>
@@ -17863,7 +17863,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F299" t="n">
         <v>2</v>
@@ -17922,7 +17922,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F300" t="n">
         <v>1</v>
@@ -18038,7 +18038,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F303" t="n">
         <v>1</v>
@@ -18214,7 +18214,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F305" t="n">
         <v>1</v>
@@ -18331,7 +18331,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F307" t="n">
         <v>2</v>
@@ -18506,7 +18506,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F310" t="n">
         <v>1</v>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F312" t="n">
         <v>1</v>
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F315" t="n">
         <v>4</v>
@@ -19028,7 +19028,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F319" t="n">
         <v>1</v>
@@ -19144,7 +19144,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F321" t="n">
         <v>2</v>
@@ -19788,7 +19788,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F332" t="n">
         <v>3</v>
@@ -20198,7 +20198,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F339" t="n">
         <v>1</v>
@@ -20257,7 +20257,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F340" t="n">
         <v>2</v>
@@ -20315,7 +20315,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F341" t="n">
         <v>3</v>
@@ -20432,7 +20432,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F343" t="n">
         <v>5</v>
@@ -20490,7 +20490,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F344" t="n">
         <v>3</v>
@@ -20609,7 +20609,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F346" t="n">
         <v>5</v>
@@ -20905,7 +20905,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F351" t="n">
         <v>5</v>
@@ -20963,7 +20963,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F352" t="n">
         <v>6</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F353" t="n">
         <v>7</v>
@@ -21488,7 +21488,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F361" t="n">
         <v>4</v>
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F362" t="n">
         <v>1</v>
@@ -21604,7 +21604,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F363" t="n">
         <v>2</v>
@@ -21779,7 +21779,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F366" t="n">
         <v>1</v>
@@ -21955,7 +21955,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F369" t="n">
         <v>4</v>
@@ -22362,7 +22362,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F376" t="n">
         <v>4</v>
@@ -22423,7 +22423,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F377" t="n">
         <v>5</v>
@@ -22482,7 +22482,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F378" t="n">
         <v>6</v>
@@ -22774,7 +22774,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F383" t="n">
         <v>1</v>
@@ -22832,7 +22832,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F384" t="n">
         <v>1</v>
@@ -22948,7 +22948,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F386" t="n">
         <v>1</v>
@@ -23006,7 +23006,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F387" t="n">
         <v>1</v>
@@ -23300,7 +23300,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F392" t="n">
         <v>1</v>
@@ -23532,7 +23532,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F396" t="n">
         <v>1</v>
@@ -23766,7 +23766,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F400" t="n">
         <v>1</v>
@@ -23888,7 +23888,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F402" t="n">
         <v>1</v>
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F409" t="n">
         <v>1</v>
@@ -24531,7 +24531,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F413" t="n">
         <v>3</v>
@@ -24589,7 +24589,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F414" t="n">
         <v>4</v>
@@ -24705,7 +24705,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F416" t="n">
         <v>2</v>
@@ -24937,7 +24937,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F420" t="n">
         <v>3</v>
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="F422" t="n">
         <v>3</v>
@@ -25111,7 +25111,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F423" t="n">
         <v>4</v>
@@ -25169,7 +25169,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F424" t="n">
         <v>4</v>
@@ -25227,7 +25227,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F425" t="n">
         <v>1</v>
@@ -25343,7 +25343,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F427" t="n">
         <v>2</v>
@@ -25402,7 +25402,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F428" t="n">
         <v>2</v>
@@ -25757,7 +25757,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F434" t="n">
         <v>1</v>
@@ -25874,7 +25874,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F436" t="n">
         <v>3</v>
@@ -26166,7 +26166,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F441" t="n">
         <v>3</v>
@@ -26225,7 +26225,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F442" t="n">
         <v>1</v>
@@ -26284,7 +26284,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F443" t="n">
         <v>2</v>
@@ -26344,7 +26344,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F444" t="n">
         <v>1</v>
@@ -26462,7 +26462,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F446" t="n">
         <v>3</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F447" t="n">
         <v>2</v>
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F449" t="n">
         <v>2</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F456" t="n">
         <v>1</v>
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F458" t="n">
         <v>1</v>
@@ -27280,7 +27280,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F460" t="n">
         <v>2</v>
@@ -27338,7 +27338,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F461" t="n">
         <v>1</v>
@@ -27398,7 +27398,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F462" t="n">
         <v>1</v>
@@ -27456,7 +27456,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F463" t="n">
         <v>2</v>
@@ -27697,7 +27697,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F467" t="n">
         <v>1</v>
@@ -27755,7 +27755,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F468" t="n">
         <v>2</v>
@@ -27932,7 +27932,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F471" t="n">
         <v>3</v>
@@ -28049,7 +28049,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F473" t="n">
         <v>3</v>
@@ -28225,7 +28225,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F476" t="n">
         <v>1</v>
@@ -28283,7 +28283,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F477" t="n">
         <v>2</v>
@@ -28575,7 +28575,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F482" t="n">
         <v>3</v>
@@ -29115,7 +29115,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F491" t="n">
         <v>1</v>
@@ -29232,7 +29232,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F493" t="n">
         <v>3</v>
@@ -29409,7 +29409,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F496" t="n">
         <v>1</v>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F497" t="n">
         <v>2</v>
@@ -29526,7 +29526,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F498" t="n">
         <v>3</v>
@@ -30348,7 +30348,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F512" t="n">
         <v>1</v>
@@ -30581,7 +30581,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F516" t="n">
         <v>1</v>
@@ -31870,7 +31870,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F538" t="n">
         <v>1</v>
@@ -32756,7 +32756,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F553" t="n">
         <v>1</v>
@@ -32814,7 +32814,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F554" t="n">
         <v>1</v>
@@ -32872,7 +32872,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F555" t="n">
         <v>1</v>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F557" t="n">
         <v>1</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F558" t="n">
         <v>1</v>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F562" t="n">
         <v>1</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="F573" t="n">
         <v>1</v>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="F574" t="n">
         <v>2</v>
@@ -34044,7 +34044,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F575" t="n">
         <v>3</v>
@@ -34102,7 +34102,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F576" t="n">
         <v>4</v>
@@ -34160,7 +34160,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F577" t="n">
         <v>4</v>
@@ -34218,7 +34218,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F578" t="n">
         <v>3</v>
@@ -34334,7 +34334,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F580" t="n">
         <v>3</v>
@@ -34394,7 +34394,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F581" t="n">
         <v>4</v>
@@ -34452,7 +34452,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F582" t="n">
         <v>4</v>
@@ -34510,7 +34510,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F583" t="n">
         <v>2</v>
@@ -34568,7 +34568,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F584" t="n">
         <v>2</v>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F585" t="n">
         <v>3</v>
@@ -34684,7 +34684,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F586" t="n">
         <v>2</v>
@@ -34742,7 +34742,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F587" t="n">
         <v>3</v>
@@ -34801,7 +34801,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F588" t="n">
         <v>4</v>
@@ -34859,7 +34859,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F589" t="n">
         <v>5</v>
@@ -34917,7 +34917,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F590" t="n">
         <v>6</v>
@@ -35091,7 +35091,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F593" t="n">
         <v>3</v>
@@ -35150,7 +35150,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F594" t="n">
         <v>4</v>
@@ -35209,7 +35209,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F595" t="n">
         <v>5</v>
@@ -35267,7 +35267,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F596" t="n">
         <v>3</v>
@@ -35383,7 +35383,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F598" t="n">
         <v>3</v>
@@ -35441,7 +35441,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F599" t="n">
         <v>2</v>
@@ -35559,7 +35559,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F601" t="n">
         <v>2</v>
@@ -35675,7 +35675,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F603" t="n">
         <v>4</v>
@@ -35791,7 +35791,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F605" t="n">
         <v>3</v>
@@ -35849,7 +35849,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F606" t="n">
         <v>4</v>
@@ -35967,7 +35967,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F608" t="n">
         <v>4</v>
@@ -36141,7 +36141,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F611" t="n">
         <v>3</v>
@@ -36199,7 +36199,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F612" t="n">
         <v>2</v>
@@ -36257,7 +36257,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F613" t="n">
         <v>2</v>
@@ -36316,7 +36316,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F614" t="n">
         <v>2</v>
@@ -36376,7 +36376,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F615" t="n">
         <v>1</v>
@@ -36435,7 +36435,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F616" t="n">
         <v>2</v>
@@ -36493,7 +36493,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F617" t="n">
         <v>3</v>
@@ -36609,7 +36609,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F619" t="n">
         <v>3</v>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F620" t="n">
         <v>4</v>
@@ -36725,7 +36725,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F621" t="n">
         <v>5</v>
@@ -36784,7 +36784,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F622" t="n">
         <v>6</v>
@@ -36842,7 +36842,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F623" t="n">
         <v>2</v>
@@ -36958,7 +36958,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F625" t="n">
         <v>4</v>
@@ -37016,7 +37016,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F626" t="n">
         <v>5</v>
@@ -37074,7 +37074,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F627" t="n">
         <v>3</v>
@@ -37132,7 +37132,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F628" t="n">
         <v>3</v>
@@ -37191,7 +37191,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F629" t="n">
         <v>3</v>
@@ -37249,7 +37249,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F630" t="n">
         <v>2</v>
@@ -37307,7 +37307,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F631" t="n">
         <v>1</v>
@@ -37365,7 +37365,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F632" t="n">
         <v>2</v>
@@ -37423,7 +37423,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F633" t="n">
         <v>3</v>
@@ -37481,7 +37481,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F634" t="n">
         <v>4</v>
@@ -37539,7 +37539,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F635" t="n">
         <v>3</v>
@@ -37605,7 +37605,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F636" t="n">
         <v>2</v>
@@ -37665,7 +37665,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F637" t="n">
         <v>2</v>
@@ -37723,7 +37723,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="F638" t="n">
         <v>1</v>
@@ -37781,7 +37781,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F639" t="n">
         <v>2</v>
@@ -37839,7 +37839,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F640" t="n">
         <v>3</v>
@@ -37897,7 +37897,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F641" t="n">
         <v>4</v>
@@ -37955,7 +37955,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F642" t="n">
         <v>5</v>
@@ -38013,7 +38013,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F643" t="n">
         <v>6</v>
@@ -38071,7 +38071,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F644" t="n">
         <v>7</v>
@@ -38131,7 +38131,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F645" t="n">
         <v>8</v>
@@ -38189,7 +38189,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F646" t="n">
         <v>9</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F647" t="n">
         <v>9</v>
@@ -38363,7 +38363,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F649" t="n">
         <v>3</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F650" t="n">
         <v>3</v>
@@ -38537,7 +38537,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F652" t="n">
         <v>3</v>
@@ -38595,7 +38595,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F653" t="n">
         <v>4</v>
@@ -38653,7 +38653,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F654" t="n">
         <v>4</v>
@@ -38711,7 +38711,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F655" t="n">
         <v>3</v>
@@ -38769,7 +38769,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F656" t="n">
         <v>4</v>
@@ -38885,7 +38885,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F658" t="n">
         <v>1</v>
@@ -39001,7 +39001,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F660" t="n">
         <v>3</v>
@@ -39059,7 +39059,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F661" t="n">
         <v>4</v>
@@ -39238,7 +39238,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F664" t="n">
         <v>4</v>
@@ -39296,7 +39296,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F665" t="n">
         <v>3</v>
@@ -39354,7 +39354,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F666" t="n">
         <v>2</v>
@@ -39412,7 +39412,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F667" t="n">
         <v>2</v>
@@ -39529,7 +39529,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F669" t="n">
         <v>1</v>
@@ -39589,7 +39589,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="F670" t="n">
         <v>1</v>
@@ -39647,7 +39647,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F671" t="n">
         <v>2</v>
@@ -39705,7 +39705,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F672" t="n">
         <v>3</v>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F673" t="n">
         <v>4</v>
@@ -39822,7 +39822,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F674" t="n">
         <v>5</v>
@@ -39880,7 +39880,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F675" t="n">
         <v>5</v>
@@ -39997,7 +39997,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F677" t="n">
         <v>4</v>
@@ -40055,7 +40055,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F678" t="n">
         <v>5</v>
@@ -40113,7 +40113,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F679" t="n">
         <v>6</v>
@@ -40172,7 +40172,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F680" t="n">
         <v>2</v>
@@ -40288,7 +40288,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F682" t="n">
         <v>4</v>
@@ -40346,7 +40346,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F683" t="n">
         <v>5</v>
@@ -40522,7 +40522,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F686" t="n">
         <v>1</v>
@@ -40580,7 +40580,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F687" t="n">
         <v>2</v>
@@ -40696,7 +40696,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F689" t="n">
         <v>4</v>
@@ -40754,7 +40754,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F690" t="n">
         <v>4</v>
@@ -40814,7 +40814,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F691" t="n">
         <v>1</v>
@@ -40876,7 +40876,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="F692" t="n">
         <v>1</v>
@@ -40996,7 +40996,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F694" t="n">
         <v>2</v>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F695" t="n">
         <v>3</v>
@@ -41175,7 +41175,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F697" t="n">
         <v>5</v>
@@ -41291,7 +41291,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F699" t="n">
         <v>5</v>
@@ -41350,7 +41350,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F700" t="n">
         <v>3</v>
@@ -41410,7 +41410,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F701" t="n">
         <v>4</v>
@@ -41469,7 +41469,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F702" t="n">
         <v>3</v>
@@ -41587,7 +41587,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F704" t="n">
         <v>3</v>
@@ -41645,7 +41645,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F705" t="n">
         <v>3</v>
@@ -41704,7 +41704,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F706" t="n">
         <v>2</v>
@@ -41762,7 +41762,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F707" t="n">
         <v>3</v>
@@ -41820,7 +41820,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F708" t="n">
         <v>4</v>
@@ -41878,7 +41878,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F709" t="n">
         <v>5</v>
@@ -41938,7 +41938,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F710" t="n">
         <v>6</v>
@@ -41996,7 +41996,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F711" t="n">
         <v>5</v>
@@ -42055,7 +42055,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F712" t="n">
         <v>4</v>
@@ -42115,7 +42115,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F713" t="n">
         <v>2</v>
@@ -42174,7 +42174,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F714" t="n">
         <v>3</v>
@@ -42296,7 +42296,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F716" t="n">
         <v>2</v>
@@ -42354,7 +42354,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F717" t="n">
         <v>3</v>
@@ -42413,7 +42413,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F718" t="n">
         <v>3</v>
@@ -42529,7 +42529,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F720" t="n">
         <v>1</v>
@@ -42645,7 +42645,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F722" t="n">
         <v>3</v>
@@ -42703,7 +42703,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F723" t="n">
         <v>3</v>
@@ -42761,7 +42761,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F724" t="n">
         <v>4</v>
@@ -42819,7 +42819,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F725" t="n">
         <v>2</v>
@@ -42877,7 +42877,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F726" t="n">
         <v>2</v>
@@ -42995,7 +42995,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F728" t="n">
         <v>1</v>
@@ -43053,7 +43053,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F729" t="n">
         <v>1</v>
@@ -43171,7 +43171,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F731" t="n">
         <v>1</v>
@@ -43229,7 +43229,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F732" t="n">
         <v>1</v>
@@ -43345,7 +43345,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F734" t="n">
         <v>1</v>
@@ -43403,7 +43403,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F735" t="n">
         <v>2</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F736" t="n">
         <v>1</v>
@@ -43635,7 +43635,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F739" t="n">
         <v>1</v>
@@ -43809,7 +43809,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F742" t="n">
         <v>3</v>
@@ -43868,7 +43868,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F743" t="n">
         <v>1</v>
@@ -43930,7 +43930,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F744" t="n">
         <v>1</v>
@@ -43989,7 +43989,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F745" t="n">
         <v>1</v>
@@ -44221,7 +44221,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F749" t="n">
         <v>2</v>
@@ -44279,7 +44279,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F750" t="n">
         <v>3</v>
@@ -44454,7 +44454,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F753" t="n">
         <v>1</v>
@@ -44512,7 +44512,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F754" t="n">
         <v>1</v>
@@ -44570,7 +44570,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F755" t="n">
         <v>2</v>
@@ -44628,7 +44628,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F756" t="n">
         <v>3</v>
@@ -44802,7 +44802,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F759" t="n">
         <v>2</v>
@@ -44861,7 +44861,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F760" t="n">
         <v>2</v>
@@ -44977,7 +44977,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F762" t="n">
         <v>2</v>
@@ -45035,7 +45035,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F763" t="n">
         <v>1</v>
@@ -45093,7 +45093,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F764" t="n">
         <v>2</v>
@@ -45210,7 +45210,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F766" t="n">
         <v>3</v>
@@ -45268,7 +45268,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F767" t="n">
         <v>2</v>
@@ -45326,7 +45326,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F768" t="n">
         <v>1</v>
